--- a/biorefineries/TAL/analyses/results/TAL_2025/full/baseline_B.xlsx
+++ b/biorefineries/TAL/analyses/results/TAL_2025/full/baseline_B.xlsx
@@ -2212,73 +2212,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.792150084123442</v>
+        <v>2.933232650540942</v>
       </c>
       <c r="C4" t="n">
-        <v>14.33707741498457</v>
+        <v>14.33498266592466</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9336072513445701</v>
+        <v>0.9337436775178237</v>
       </c>
       <c r="E4" t="n">
-        <v>2.990711651074067</v>
+        <v>3.141368151844814</v>
       </c>
       <c r="F4" t="n">
-        <v>13.38519943771806</v>
+        <v>13.38519943163475</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7324301617653179</v>
+        <v>0.7324133447933094</v>
       </c>
       <c r="H4" t="n">
-        <v>204.5219795542959</v>
+        <v>205.8937754000373</v>
       </c>
       <c r="I4" t="n">
-        <v>111.4451830881466</v>
+        <v>112.1429335146268</v>
       </c>
       <c r="J4" t="n">
-        <v>17.92354185740989</v>
+        <v>19.34809389760711</v>
       </c>
       <c r="K4" t="n">
-        <v>8.84184040904368</v>
+        <v>8.45331596762429</v>
       </c>
       <c r="L4" t="n">
-        <v>15.55414110538925</v>
+        <v>17.39602421192301</v>
       </c>
       <c r="M4" t="n">
-        <v>40.03127191033345</v>
+        <v>42.0478392006287</v>
       </c>
       <c r="N4" t="n">
-        <v>6.287358730815869</v>
+        <v>6.316868845561752</v>
       </c>
       <c r="O4" t="n">
-        <v>-2.01864168047905e-07</v>
+        <v>6.114132702350616e-07</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.848541639786049</v>
+        <v>3.850043028592609</v>
       </c>
       <c r="R4" t="n">
-        <v>39.46350122954816</v>
+        <v>39.99561827125001</v>
       </c>
       <c r="S4" t="n">
-        <v>8.126729826700828</v>
+        <v>8.15567168781444</v>
       </c>
       <c r="T4" t="n">
-        <v>7.206048273539303</v>
+        <v>7.491709128518906</v>
       </c>
       <c r="U4" t="n">
-        <v>3.91213614779334</v>
+        <v>3.910970285470534</v>
       </c>
       <c r="V4" t="n">
-        <v>48.52494412967615</v>
+        <v>48.34434910498484</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2860927121571368</v>
+        <v>0.3109416412515588</v>
       </c>
       <c r="X4" t="n">
-        <v>0.07718912894563225</v>
+        <v>0.08363036674396833</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -2296,25 +2296,25 @@
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>2704.727178176056</v>
+        <v>2706.712618031295</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>1372.106828582872</v>
+        <v>1700.010211808454</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.1603358010247853</v>
+        <v>0.1602173995633399</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>69.28414005016585</v>
+        <v>69.15087779165813</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>41.09461224534542</v>
+        <v>41.08800410780371</v>
       </c>
       <c r="AN4" t="n">
-        <v>1455.407113614785</v>
+        <v>1462.23815869485</v>
       </c>
       <c r="AO4" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-2046.722316908259</v>
+        <v>-1956.786103616734</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2371,37 +2371,37 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>10.30539155571172</v>
+        <v>10.99298247115894</v>
       </c>
       <c r="BD4" t="n">
-        <v>58.40577062096543</v>
+        <v>64.71181496503097</v>
       </c>
       <c r="BE4" t="n">
-        <v>123.8352998465501</v>
+        <v>118.3937810591637</v>
       </c>
       <c r="BF4" t="n">
         <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.6051995547062725</v>
+        <v>0.605630352152206</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.7145667898173522</v>
+        <v>0.8467035435514184</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.5381657778423359</v>
+        <v>0.5394567361259559</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.2887421633092153</v>
+        <v>0.3005411454783682</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.1553454903541235</v>
+        <v>0.1554586691454549</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.5166905074648239</v>
+        <v>0.5208555481474758</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.1311976746248578</v>
+        <v>0.1477748592369011</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
@@ -2428,25 +2428,25 @@
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>23.24461344210935</v>
+        <v>23.64028719053699</v>
       </c>
       <c r="BW4" t="n">
-        <v>19.55410821471078</v>
+        <v>19.64857975284088</v>
       </c>
       <c r="BX4" t="n">
-        <v>1.901635148318767</v>
+        <v>1.89674586540246</v>
       </c>
       <c r="BY4" t="n">
         <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>20.44935415037575</v>
+        <v>19.73891099543032</v>
       </c>
       <c r="CA4" t="n">
         <v>0</v>
       </c>
       <c r="CB4" t="n">
-        <v>-2.405784310977432</v>
+        <v>-2.399666842572458</v>
       </c>
       <c r="CC4" t="n">
         <v>0</v>
@@ -2467,16 +2467,16 @@
         <v>0</v>
       </c>
       <c r="CI4" t="n">
-        <v>17.61735221686482</v>
+        <v>17.6302843638077</v>
       </c>
       <c r="CJ4" t="n">
-        <v>29.03248854067538</v>
+        <v>35.33404003368305</v>
       </c>
       <c r="CK4" t="n">
-        <v>14.33293088197642</v>
+        <v>14.30113413583358</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.09609266031265259</v>
+        <v>0.1126529234539138</v>
       </c>
       <c r="CM4" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-2.673093678863844</v>
+        <v>-2.666296491747277</v>
       </c>
       <c r="CQ4" t="n">
         <v>0</v>
@@ -2506,64 +2506,64 @@
         <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>111.4451830881466</v>
+        <v>112.1429335146269</v>
       </c>
       <c r="CW4" t="n">
-        <v>15.53497009154779</v>
+        <v>17.37751961181696</v>
       </c>
       <c r="CX4" t="n">
-        <v>24.37681050059147</v>
+        <v>25.83083557944125</v>
       </c>
       <c r="CY4" t="n">
-        <v>192.5464620232273</v>
+        <v>194.0985784953536</v>
       </c>
       <c r="CZ4" t="n">
-        <v>2.949907958118982</v>
+        <v>3.116420853837781</v>
       </c>
       <c r="DA4" t="n">
-        <v>62.74392664453722</v>
+        <v>62.52485696163821</v>
       </c>
       <c r="DB4" t="n">
-        <v>65.14971095551465</v>
+        <v>64.92452380421066</v>
       </c>
       <c r="DC4" t="n">
-        <v>58.40577062096543</v>
+        <v>64.71181496503097</v>
       </c>
       <c r="DD4" t="n">
-        <v>61.07886429982927</v>
+        <v>67.37811145677824</v>
       </c>
       <c r="DE4" t="n">
-        <v>-29.23889024154656</v>
+        <v>-27.95408719452476</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.1775287248998922</v>
+        <v>0.177500177745712</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.03453304605136749</v>
+        <v>0.03433157050497921</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.3541068365272893</v>
+        <v>0.3566485824631416</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.0729213197152995</v>
+        <v>0.07272568526799497</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.06466002454174929</v>
+        <v>0.06680500405798424</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.03510368092534846</v>
+        <v>0.03487487051478302</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.4354153565461484</v>
+        <v>0.4310958130828569</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.002567115995770352</v>
+        <v>0.00277272612287249</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.0006926196970270142</v>
+        <v>0.0007457479853874196</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
@@ -2581,25 +2581,25 @@
         <v>0</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.4793252755292598</v>
+        <v>0.4526759683764022</v>
       </c>
       <c r="DV4" t="n">
         <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.243161487403538</v>
+        <v>0.2843130680936099</v>
       </c>
       <c r="DX4" t="n">
         <v>0</v>
       </c>
       <c r="DY4" t="n">
-        <v>2.841432682139717e-05</v>
+        <v>2.679507459156688e-05</v>
       </c>
       <c r="DZ4" t="n">
         <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.01227836943678313</v>
+        <v>0.01156492948674582</v>
       </c>
       <c r="EB4" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.007282688803589983</v>
+        <v>0.006871639022277091</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.2579237645000077</v>
+        <v>0.2445475999463735</v>
       </c>
       <c r="EF4" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0.36271522924745</v>
+        <v>-0.3272567757874731</v>
       </c>
       <c r="EI4" t="n">
         <v>0</v>
@@ -2656,37 +2656,37 @@
         <v>0</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.0535215835566408</v>
+        <v>0.05663607923549061</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.3033333877301771</v>
+        <v>0.3333966454915592</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.6431450287131821</v>
+        <v>0.6099672752729502</v>
       </c>
       <c r="EW4" t="n">
         <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.2051587925109975</v>
+        <v>0.1943352263884353</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.2422335882889709</v>
+        <v>0.271691014552392</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.1824347693158193</v>
+        <v>0.1731013754004472</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.09788175339997141</v>
+        <v>0.09643792015711247</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.05266113131651066</v>
+        <v>0.04988372124195361</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.1751547895054642</v>
+        <v>0.1671326090332304</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.04447517566226589</v>
+        <v>0.04741813322642888</v>
       </c>
       <c r="FE4" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>0</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.3567876679910549</v>
+        <v>0.3641195315013432</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.300141135362253</v>
+        <v>0.3026372563331235</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.02918869662548828</v>
+        <v>0.02921462883766961</v>
       </c>
       <c r="FP4" t="n">
         <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.3138825000212039</v>
+        <v>0.3040285833278635</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>-0.03692701434424081</v>
+        <v>-0.03696086935976615</v>
       </c>
       <c r="FT4" t="n">
         <v>0</v>
@@ -2752,16 +2752,16 @@
         <v>0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.2884361459372136</v>
+        <v>0.2616618955714897</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.4753279039072855</v>
+        <v>0.5244142239924482</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.2346626946371772</v>
+        <v>0.212251929100261</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.001573255518323729</v>
+        <v>0.001671951335801071</v>
       </c>
       <c r="GD4" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="GG4" t="n">
-        <v>-0.04376462643021534</v>
+        <v>-0.03957214641519975</v>
       </c>
       <c r="GH4" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         <v>0</v>
       </c>
       <c r="GM4" t="n">
-        <v>0.4789486089259385</v>
+        <v>0.4523519141562852</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.0004762592776729217</v>
+        <v>0.0004498119252776651</v>
       </c>
       <c r="GO4" t="n">
-        <v>0.06153416406353374</v>
+        <v>0.05752244980947979</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.1082984235863521</v>
+        <v>0.1012379176673254</v>
       </c>
       <c r="GQ4" t="n">
-        <v>0.0715653194039863</v>
+        <v>0.06689962488585706</v>
       </c>
       <c r="GR4" t="n">
-        <v>0.001572497558511781</v>
+        <v>0.05844954637223087</v>
       </c>
       <c r="GS4" t="n">
         <v>0</v>
@@ -2815,43 +2815,43 @@
         <v>0</v>
       </c>
       <c r="GU4" t="n">
-        <v>1.352494837114582e-05</v>
+        <v>1.275509279044614e-05</v>
       </c>
       <c r="GV4" t="n">
-        <v>1.363566544152374e-05</v>
+        <v>1.285950771813411e-05</v>
       </c>
       <c r="GW4" t="n">
-        <v>1.231384271822051e-06</v>
+        <v>1.161292466098751e-06</v>
       </c>
       <c r="GX4" t="n">
         <v>0</v>
       </c>
       <c r="GY4" t="n">
-        <v>4.75268004981432e-05</v>
+        <v>1.626865455183487e-05</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.0001539446552057341</v>
+        <v>0.0001464604151072942</v>
       </c>
       <c r="HA4" t="n">
         <v>0</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.66278985449951</v>
+        <v>0.6136907363315545</v>
       </c>
       <c r="HC4" t="n">
-        <v>0.000659068241289514</v>
+        <v>0.0006102448182389967</v>
       </c>
       <c r="HD4" t="n">
-        <v>0.08515364464233179</v>
+        <v>0.07803878678178473</v>
       </c>
       <c r="HE4" t="n">
-        <v>0.1498680548885863</v>
+        <v>0.1373461022129533</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.09903519240059791</v>
+        <v>0.09076048707140406</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.002176090312370074</v>
+        <v>0.07929654772948926</v>
       </c>
       <c r="HH4" t="n">
         <v>0</v>
@@ -2860,175 +2860,175 @@
         <v>0</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1.871641006146296e-05</v>
+        <v>1.730440845187133e-05</v>
       </c>
       <c r="HK4" t="n">
-        <v>1.886962514466563e-05</v>
+        <v>1.744606469748786e-05</v>
       </c>
       <c r="HL4" t="n">
-        <v>1.704042953969883e-06</v>
+        <v>1.575486709160258e-06</v>
       </c>
       <c r="HM4" t="n">
         <v>0</v>
       </c>
       <c r="HN4" t="n">
-        <v>6.576964751527772e-05</v>
+        <v>2.207114036349549e-05</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.0002130352896391092</v>
+        <v>0.0001986979543532272</v>
       </c>
       <c r="HP4" t="n">
         <v>0</v>
       </c>
       <c r="HQ4" t="n">
-        <v>2.681834222034151</v>
+        <v>3.352101798711463</v>
       </c>
       <c r="HR4" t="n">
-        <v>6.918908976700025</v>
+        <v>7.402992794128901</v>
       </c>
       <c r="HS4" t="n">
-        <v>-4.237074754665874</v>
+        <v>-4.050890995417438</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.852345007237445</v>
+        <v>1.066313486989744</v>
       </c>
       <c r="HU4" t="n">
-        <v>3.076276793425053</v>
+        <v>3.078534975464622</v>
       </c>
       <c r="HV4" t="n">
-        <v>2.990287176037527</v>
+        <v>3.258144331674535</v>
       </c>
       <c r="HW4" t="n">
-        <v>2.327131102276516</v>
+        <v>2.305011443384013</v>
       </c>
       <c r="HX4" t="n">
-        <v>0.3102302825774121</v>
+        <v>0.3072815067125613</v>
       </c>
       <c r="HY4" t="n">
-        <v>0.3163842639076388</v>
+        <v>0.3133769937157075</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.02433589287544922</v>
+        <v>0.02433197960156504</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.01220563440051139</v>
+        <v>0.3081424082606884</v>
       </c>
       <c r="IB4" t="n">
         <v>0</v>
       </c>
       <c r="IC4" t="n">
-        <v>0.003686134076708775</v>
+        <v>0.003688839932626963</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.0006434334346577401</v>
+        <v>0.0006439057555584173</v>
       </c>
       <c r="IE4" t="n">
-        <v>-10.26827904867648</v>
+        <v>-4.115543048867721</v>
       </c>
       <c r="IF4" t="n">
-        <v>43.74734655423546</v>
+        <v>47.52655062099734</v>
       </c>
       <c r="IG4" t="n">
-        <v>-54.01562560291194</v>
+        <v>-51.64209366986506</v>
       </c>
       <c r="IH4" t="n">
-        <v>9.447443898083947</v>
+        <v>9.454378920373259</v>
       </c>
       <c r="II4" t="n">
-        <v>34.29990265615151</v>
+        <v>38.07217170062408</v>
       </c>
       <c r="IJ4" t="n">
-        <v>18.01649885633432</v>
+        <v>17.84524988426333</v>
       </c>
       <c r="IK4" t="n">
-        <v>4.178642940329726</v>
+        <v>4.138924440420875</v>
       </c>
       <c r="IL4" t="n">
-        <v>8.908879282066497</v>
+        <v>8.82419932113047</v>
       </c>
       <c r="IM4" t="n">
-        <v>3.041986609431152</v>
+        <v>3.04149745019563</v>
       </c>
       <c r="IN4" t="n">
-        <v>0.1538949679898183</v>
+        <v>4.222300604613779</v>
       </c>
       <c r="IO4" t="n">
         <v>0</v>
       </c>
       <c r="IP4" t="n">
-        <v>0.04483106733387978</v>
+        <v>0.0448639761772207</v>
       </c>
       <c r="IQ4" t="n">
-        <v>0.002442054338049842</v>
+        <v>0.002443846960631016</v>
       </c>
       <c r="IR4" t="n">
-        <v>-0.6123905906168963</v>
+        <v>-0.547196398547096</v>
       </c>
       <c r="IS4" t="n">
-        <v>0.1231906663475101</v>
+        <v>0.1440381635701991</v>
       </c>
       <c r="IT4" t="n">
-        <v>0.4446187691996902</v>
+        <v>0.415850057007501</v>
       </c>
       <c r="IU4" t="n">
-        <v>0.4321905644527998</v>
+        <v>0.4401117794223</v>
       </c>
       <c r="IV4" t="n">
-        <v>0.3363436504387201</v>
+        <v>0.3113621082019762</v>
       </c>
       <c r="IW4" t="n">
-        <v>0.0448380349592887</v>
+        <v>0.0415077408904487</v>
       </c>
       <c r="IX4" t="n">
-        <v>0.0457274788515195</v>
+        <v>0.04233112234882056</v>
       </c>
       <c r="IY4" t="n">
-        <v>0.003517302071381813</v>
+        <v>0.003286776075327539</v>
       </c>
       <c r="IZ4" t="n">
-        <v>0.0017640981318897</v>
+        <v>0.041624031905727</v>
       </c>
       <c r="JA4" t="n">
         <v>0</v>
       </c>
       <c r="JB4" t="n">
-        <v>0.0005327623313331804</v>
+        <v>0.0004982903584010611</v>
       </c>
       <c r="JC4" t="n">
-        <v>9.299637223506673e-05</v>
+        <v>8.697911418596549e-05</v>
       </c>
       <c r="JD4" t="n">
-        <v>-1.234717756788894</v>
+        <v>-1.086594608594411</v>
       </c>
       <c r="JE4" t="n">
-        <v>0.2159546725050294</v>
+        <v>0.1989283631325917</v>
       </c>
       <c r="JF4" t="n">
-        <v>0.7840453274949706</v>
+        <v>0.8010716368674083</v>
       </c>
       <c r="JG4" t="n">
-        <v>0.4118306657524586</v>
+        <v>0.3754795930083606</v>
       </c>
       <c r="JH4" t="n">
-        <v>0.09551763179852026</v>
+        <v>0.08708657342770187</v>
       </c>
       <c r="JI4" t="n">
-        <v>0.2036438774868729</v>
+        <v>0.1856688357524503</v>
       </c>
       <c r="JJ4" t="n">
-        <v>0.06953533983277982</v>
+        <v>0.06399575417223502</v>
       </c>
       <c r="JK4" t="n">
-        <v>0.003517812624338898</v>
+        <v>0.08884088050666056</v>
       </c>
       <c r="JL4" t="n">
         <v>0</v>
       </c>
       <c r="JM4" t="n">
-        <v>0.001024772263120022</v>
+        <v>0.0009439771157597895</v>
       </c>
       <c r="JN4" t="n">
-        <v>5.582177047063465e-05</v>
+        <v>5.142066757841498e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3038,73 +3038,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.792146852067206</v>
+        <v>2.933214873022993</v>
       </c>
       <c r="C5" t="n">
-        <v>14.33709235120997</v>
+        <v>14.33499756154761</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9336072486483199</v>
+        <v>0.9337436748573689</v>
       </c>
       <c r="E5" t="n">
-        <v>2.990708197809827</v>
+        <v>3.14134912182516</v>
       </c>
       <c r="F5" t="n">
-        <v>13.38521334363001</v>
+        <v>13.38521330219089</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7324302070685756</v>
+        <v>0.7324133907277637</v>
       </c>
       <c r="H5" t="n">
-        <v>204.5219632079558</v>
+        <v>205.8923725700737</v>
       </c>
       <c r="I5" t="n">
-        <v>111.4451790232962</v>
+        <v>112.142227570311</v>
       </c>
       <c r="J5" t="n">
-        <v>17.92354149176834</v>
+        <v>19.34809522325775</v>
       </c>
       <c r="K5" t="n">
-        <v>8.841841991016677</v>
+        <v>8.453331696018456</v>
       </c>
       <c r="L5" t="n">
-        <v>15.55413833961559</v>
+        <v>17.39597965164422</v>
       </c>
       <c r="M5" t="n">
-        <v>40.03126727622775</v>
+        <v>42.04762805227978</v>
       </c>
       <c r="N5" t="n">
-        <v>6.287357650677874</v>
+        <v>6.316837366472922</v>
       </c>
       <c r="O5" t="n">
-        <v>3.280583769083023e-07</v>
+        <v>-4.67989593744278e-08</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.84855737260936</v>
+        <v>3.850058768329744</v>
       </c>
       <c r="R5" t="n">
-        <v>39.46346303148486</v>
+        <v>39.99558018222817</v>
       </c>
       <c r="S5" t="n">
-        <v>8.126720097413108</v>
+        <v>8.155662021574134</v>
       </c>
       <c r="T5" t="n">
-        <v>7.206046819733536</v>
+        <v>7.491002667274947</v>
       </c>
       <c r="U5" t="n">
-        <v>3.912137966940878</v>
+        <v>3.910972095437379</v>
       </c>
       <c r="V5" t="n">
-        <v>48.52497013367424</v>
+        <v>48.3443781893089</v>
       </c>
       <c r="W5" t="n">
-        <v>0.286094130414921</v>
+        <v>0.3109429332267661</v>
       </c>
       <c r="X5" t="n">
-        <v>0.07718947102535428</v>
+        <v>0.08363071293093963</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -3122,25 +3122,25 @@
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>2704.730540758876</v>
+        <v>2706.715976053422</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>1372.103289945008</v>
+        <v>1700.007069472395</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.1603370319389116</v>
+        <v>0.1602186309964044</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>69.28422689134403</v>
+        <v>69.15096439856198</v>
       </c>
       <c r="AK5" t="n">
         <v>0</v>
@@ -3149,10 +3149,10 @@
         <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>41.09465505754705</v>
+        <v>41.08804680287521</v>
       </c>
       <c r="AN5" t="n">
-        <v>1455.406863582841</v>
+        <v>1462.230871868732</v>
       </c>
       <c r="AO5" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-2046.722683105712</v>
+        <v>-1956.789744448716</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -3197,37 +3197,37 @@
         <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>10.30540519421228</v>
+        <v>10.9928117194353</v>
       </c>
       <c r="BD5" t="n">
-        <v>58.40596351126192</v>
+        <v>64.71201524144391</v>
       </c>
       <c r="BE5" t="n">
-        <v>123.8353220030347</v>
+        <v>118.3940013447963</v>
       </c>
       <c r="BF5" t="n">
         <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.6052024742114689</v>
+        <v>0.6056332729515477</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.7145658482986506</v>
+        <v>0.8467027500508733</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.5381652038016578</v>
+        <v>0.5394561629693295</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.2887428575990823</v>
+        <v>0.3004982052267887</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.1553456831889809</v>
+        <v>0.155458861716934</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.5166911211323665</v>
+        <v>0.5208562185031947</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.1311986037558356</v>
+        <v>0.1477757363956393</v>
       </c>
       <c r="BN5" t="n">
         <v>0</v>
@@ -3254,25 +3254,25 @@
         <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>23.24508190378518</v>
+        <v>23.64075658063266</v>
       </c>
       <c r="BW5" t="n">
-        <v>19.55407680325304</v>
+        <v>19.64854840050089</v>
       </c>
       <c r="BX5" t="n">
-        <v>1.901649904868364</v>
+        <v>1.896758971072674</v>
       </c>
       <c r="BY5" t="n">
         <v>0</v>
       </c>
       <c r="BZ5" t="n">
-        <v>20.4493599094829</v>
+        <v>19.73891885138971</v>
       </c>
       <c r="CA5" t="n">
         <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>-2.4057984921613</v>
+        <v>-2.39968102239193</v>
       </c>
       <c r="CC5" t="n">
         <v>0</v>
@@ -3293,16 +3293,16 @@
         <v>0</v>
       </c>
       <c r="CI5" t="n">
-        <v>17.61737547773798</v>
+        <v>17.63030758862376</v>
       </c>
       <c r="CJ5" t="n">
-        <v>29.03289169481991</v>
+        <v>35.33445139226011</v>
       </c>
       <c r="CK5" t="n">
-        <v>14.33291597419911</v>
+        <v>14.3011189894651</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.09588980023966895</v>
+        <v>0.1124495181971126</v>
       </c>
       <c r="CM5" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-2.673109435734745</v>
+        <v>-2.666312247102182</v>
       </c>
       <c r="CQ5" t="n">
         <v>0</v>
@@ -3332,64 +3332,64 @@
         <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>111.4451790232963</v>
+        <v>112.142227570311</v>
       </c>
       <c r="CW5" t="n">
-        <v>15.53496723429917</v>
+        <v>17.37747390000212</v>
       </c>
       <c r="CX5" t="n">
-        <v>24.37680922531584</v>
+        <v>25.83080559602057</v>
       </c>
       <c r="CY5" t="n">
-        <v>192.5466907085089</v>
+        <v>194.0988283056755</v>
       </c>
       <c r="CZ5" t="n">
-        <v>2.949911791988042</v>
+        <v>3.116381207814308</v>
       </c>
       <c r="DA5" t="n">
-        <v>62.74437002922817</v>
+        <v>62.52530178120399</v>
       </c>
       <c r="DB5" t="n">
-        <v>65.15016852138947</v>
+        <v>64.92498280359592</v>
       </c>
       <c r="DC5" t="n">
-        <v>58.40596351126192</v>
+        <v>64.71201524144391</v>
       </c>
       <c r="DD5" t="n">
-        <v>61.07907294699667</v>
+        <v>67.37832748854609</v>
       </c>
       <c r="DE5" t="n">
-        <v>-29.23889547293874</v>
+        <v>-27.95413920641023</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.1775289098486033</v>
+        <v>0.1775003621884209</v>
       </c>
       <c r="DG5" t="n">
         <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.03453318848188908</v>
+        <v>0.03433192698010062</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.354106506690931</v>
+        <v>0.3566504879453347</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.07292123507392199</v>
+        <v>0.07272605688575869</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.06466001385512782</v>
+        <v>0.06679912491107094</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.03510369852896995</v>
+        <v>0.03487510619481208</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.4354156057619207</v>
+        <v>0.4310987862176887</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.002567128815461066</v>
+        <v>0.002772755098268499</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.0006926227917783573</v>
+        <v>0.0007457557669657025</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
@@ -3407,25 +3407,25 @@
         <v>0</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.4793258965141264</v>
+        <v>0.4526770554284293</v>
       </c>
       <c r="DV5" t="n">
         <v>0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.2431608730155961</v>
+        <v>0.2843128725823461</v>
       </c>
       <c r="DX5" t="n">
         <v>0</v>
       </c>
       <c r="DY5" t="n">
-        <v>2.841454644756214e-05</v>
+        <v>2.679531164181334e-05</v>
       </c>
       <c r="DZ5" t="n">
         <v>0</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.01227838546891398</v>
+        <v>0.0115649573952045</v>
       </c>
       <c r="EB5" t="n">
         <v>0</v>
@@ -3434,10 +3434,10 @@
         <v>0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.007282696771660979</v>
+        <v>0.006871654139031815</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.2579237336832549</v>
+        <v>0.2445466651433465</v>
       </c>
       <c r="EF5" t="n">
         <v>0</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="EH5" t="n">
-        <v>-0.3627153131195789</v>
+        <v>-0.3272577645553864</v>
       </c>
       <c r="EI5" t="n">
         <v>0</v>
@@ -3482,37 +3482,37 @@
         <v>0</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.05352159082190276</v>
+        <v>0.05663512662798423</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.3033340292494619</v>
+        <v>0.3333972482282713</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.6431443799286354</v>
+        <v>0.6099676251437444</v>
       </c>
       <c r="EW5" t="n">
         <v>0</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.2051595155676174</v>
+        <v>0.1943386359258379</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.2422329543003322</v>
+        <v>0.2716942163326396</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.1824343376175905</v>
+        <v>0.1731033936466586</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.09788186154694782</v>
+        <v>0.09642536813958806</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.05266112824488502</v>
+        <v>0.04988441764669927</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.1751547698936962</v>
+        <v>0.167134950370369</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.04447543282893097</v>
+        <v>0.04741901793820745</v>
       </c>
       <c r="FE5" t="n">
         <v>0</v>
@@ -3539,25 +3539,25 @@
         <v>0</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.3567923526729417</v>
+        <v>0.3641241870197815</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.3001385452569203</v>
+        <v>0.3026346338810681</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.02918871812655455</v>
+        <v>0.02921462415801549</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.3138803839435835</v>
+        <v>0.3040265549411351</v>
       </c>
       <c r="FR5" t="n">
         <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>-0.03692697266579521</v>
+        <v>-0.03696082646107412</v>
       </c>
       <c r="FT5" t="n">
         <v>0</v>
@@ -3578,16 +3578,16 @@
         <v>0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.288435541466486</v>
+        <v>0.2616614013106931</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.4753328807071799</v>
+        <v>0.5244186477954168</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.234661648951957</v>
+        <v>0.2122510237716454</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.001569928874376997</v>
+        <v>0.001668927122244587</v>
       </c>
       <c r="GD5" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>-0.04376473490444791</v>
+        <v>-0.03957225337116656</v>
       </c>
       <c r="GH5" t="n">
         <v>0</v>
@@ -3617,22 +3617,22 @@
         <v>0</v>
       </c>
       <c r="GM5" t="n">
-        <v>0.4789492276072645</v>
+        <v>0.4523529799028121</v>
       </c>
       <c r="GN5" t="n">
-        <v>0.0004762598928803049</v>
+        <v>0.0004498129850399482</v>
       </c>
       <c r="GO5" t="n">
-        <v>0.06153400695811714</v>
+        <v>0.05752236174782202</v>
       </c>
       <c r="GP5" t="n">
-        <v>0.1082981470851725</v>
+        <v>0.101237762681248</v>
       </c>
       <c r="GQ5" t="n">
-        <v>0.07156513668761258</v>
+        <v>0.06689952246859406</v>
       </c>
       <c r="GR5" t="n">
-        <v>0.001572499055315991</v>
+        <v>0.05844968357333135</v>
       </c>
       <c r="GS5" t="n">
         <v>0</v>
@@ -3641,43 +3641,43 @@
         <v>0</v>
       </c>
       <c r="GU5" t="n">
-        <v>1.352505285983471e-05</v>
+        <v>1.275520505318312e-05</v>
       </c>
       <c r="GV5" t="n">
-        <v>1.363577078557127e-05</v>
+        <v>1.285962089986914e-05</v>
       </c>
       <c r="GW5" t="n">
-        <v>1.231393785036043e-06</v>
+        <v>1.161302687104024e-06</v>
       </c>
       <c r="GX5" t="n">
         <v>0</v>
       </c>
       <c r="GY5" t="n">
-        <v>4.752685818800262e-05</v>
+        <v>1.626869300850387e-05</v>
       </c>
       <c r="GZ5" t="n">
-        <v>0.0001539448455141641</v>
+        <v>0.0001464607669656417</v>
       </c>
       <c r="HA5" t="n">
         <v>0</v>
       </c>
       <c r="HB5" t="n">
-        <v>0.6627907061286958</v>
+        <v>0.6136914668724117</v>
       </c>
       <c r="HC5" t="n">
-        <v>0.000659069088136737</v>
+        <v>0.0006102455446778144</v>
       </c>
       <c r="HD5" t="n">
-        <v>0.0851534266511884</v>
+        <v>0.07803857634931644</v>
       </c>
       <c r="HE5" t="n">
-        <v>0.1498676712302147</v>
+        <v>0.1373457318576404</v>
       </c>
       <c r="HF5" t="n">
-        <v>0.09903493887304879</v>
+        <v>0.09076024233472753</v>
       </c>
       <c r="HG5" t="n">
-        <v>0.002176092368843367</v>
+        <v>0.07929664143707575</v>
       </c>
       <c r="HH5" t="n">
         <v>0</v>
@@ -3686,175 +3686,175 @@
         <v>0</v>
       </c>
       <c r="HJ5" t="n">
-        <v>1.871655452955118e-05</v>
+        <v>1.730454058471802e-05</v>
       </c>
       <c r="HK5" t="n">
-        <v>1.88697707953893e-05</v>
+        <v>1.744619791199204e-05</v>
       </c>
       <c r="HL5" t="n">
-        <v>1.704056107124092e-06</v>
+        <v>1.575498739247526e-06</v>
       </c>
       <c r="HM5" t="n">
         <v>0</v>
       </c>
       <c r="HN5" t="n">
-        <v>6.576972689960103e-05</v>
+        <v>2.207116681011086e-05</v>
       </c>
       <c r="HO5" t="n">
-        <v>0.0002130355515404912</v>
+        <v>0.000198698200104074</v>
       </c>
       <c r="HP5" t="n">
         <v>0</v>
       </c>
       <c r="HQ5" t="n">
-        <v>2.681827071607126</v>
+        <v>3.352088495935705</v>
       </c>
       <c r="HR5" t="n">
-        <v>6.918898182463938</v>
+        <v>7.402982830732354</v>
       </c>
       <c r="HS5" t="n">
-        <v>-4.237071110856811</v>
+        <v>-4.050894334796649</v>
       </c>
       <c r="HT5" t="n">
-        <v>0.852344337819765</v>
+        <v>1.066313607948282</v>
       </c>
       <c r="HU5" t="n">
-        <v>3.076277421976313</v>
+        <v>3.078535604614331</v>
       </c>
       <c r="HV5" t="n">
-        <v>2.99027642266786</v>
+        <v>3.258133618169741</v>
       </c>
       <c r="HW5" t="n">
-        <v>2.327122630206958</v>
+        <v>2.305002955072434</v>
       </c>
       <c r="HX5" t="n">
-        <v>0.3102291531642347</v>
+        <v>0.3072803751341568</v>
       </c>
       <c r="HY5" t="n">
-        <v>0.3163831120904988</v>
+        <v>0.3133758396903895</v>
       </c>
       <c r="HZ5" t="n">
-        <v>0.02433589294587391</v>
+        <v>0.02433197967096249</v>
       </c>
       <c r="IA5" t="n">
-        <v>0.01220563426029436</v>
+        <v>0.3081424686017974</v>
       </c>
       <c r="IB5" t="n">
         <v>0</v>
       </c>
       <c r="IC5" t="n">
-        <v>0.003686134829867323</v>
+        <v>0.003688840686502621</v>
       </c>
       <c r="ID5" t="n">
-        <v>0.000643433566125392</v>
+        <v>0.0006439058871512445</v>
       </c>
       <c r="IE5" t="n">
-        <v>-10.26834389788264</v>
+        <v>-4.115696306100283</v>
       </c>
       <c r="IF5" t="n">
-        <v>43.74723525255029</v>
+        <v>47.5264399352717</v>
       </c>
       <c r="IG5" t="n">
-        <v>-54.01557915043293</v>
+        <v>-51.64213624137198</v>
       </c>
       <c r="IH5" t="n">
-        <v>9.447445828405295</v>
+        <v>9.454380852532481</v>
       </c>
       <c r="II5" t="n">
-        <v>34.299789424145</v>
+        <v>38.07205908273922</v>
       </c>
       <c r="IJ5" t="n">
-        <v>18.01643326611839</v>
+        <v>17.84518416830272</v>
       </c>
       <c r="IK5" t="n">
-        <v>4.178627727712952</v>
+        <v>4.138909198639602</v>
       </c>
       <c r="IL5" t="n">
-        <v>8.908846848721904</v>
+        <v>8.824166825607083</v>
       </c>
       <c r="IM5" t="n">
-        <v>3.041986618234239</v>
+        <v>3.041497458870312</v>
       </c>
       <c r="IN5" t="n">
-        <v>0.1538949633575175</v>
+        <v>4.222301431319501</v>
       </c>
       <c r="IO5" t="n">
         <v>0</v>
       </c>
       <c r="IP5" t="n">
-        <v>0.04483107649385631</v>
+        <v>0.04486398534591878</v>
       </c>
       <c r="IQ5" t="n">
-        <v>0.002442054837015441</v>
+        <v>0.0024438474600717</v>
       </c>
       <c r="IR5" t="n">
-        <v>-0.6123910193671788</v>
+        <v>-0.5471975860838119</v>
       </c>
       <c r="IS5" t="n">
-        <v>0.1231907617863269</v>
+        <v>0.1440383737649159</v>
       </c>
       <c r="IT5" t="n">
-        <v>0.4446195536990541</v>
+        <v>0.4158507016704483</v>
       </c>
       <c r="IU5" t="n">
-        <v>0.432189684514619</v>
+        <v>0.4401109245646357</v>
       </c>
       <c r="IV5" t="n">
-        <v>0.3363429506890402</v>
+        <v>0.3113613806455914</v>
       </c>
       <c r="IW5" t="n">
-        <v>0.04483794167552799</v>
+        <v>0.04150764389977095</v>
       </c>
       <c r="IX5" t="n">
-        <v>0.04572738371730589</v>
+        <v>0.0423310234341565</v>
       </c>
       <c r="IY5" t="n">
-        <v>0.003517307568935417</v>
+        <v>0.003286780508250268</v>
       </c>
       <c r="IZ5" t="n">
-        <v>0.001764100863809463</v>
+        <v>0.04162409607686661</v>
       </c>
       <c r="JA5" t="n">
         <v>0</v>
       </c>
       <c r="JB5" t="n">
-        <v>0.0005327632713558199</v>
+        <v>0.0004982911308653807</v>
       </c>
       <c r="JC5" t="n">
-        <v>9.299653632079527e-05</v>
+        <v>8.697924902353784e-05</v>
       </c>
       <c r="JD5" t="n">
-        <v>-1.234719836318892</v>
+        <v>-1.086598034940249</v>
       </c>
       <c r="JE5" t="n">
-        <v>0.2159552660611746</v>
+        <v>0.1989288670771219</v>
       </c>
       <c r="JF5" t="n">
-        <v>0.7840447339388255</v>
+        <v>0.8010711329228781</v>
       </c>
       <c r="JG5" t="n">
-        <v>0.4118302142320663</v>
+        <v>0.3754790847496013</v>
       </c>
       <c r="JH5" t="n">
-        <v>0.09551752707548197</v>
+        <v>0.08708645554509366</v>
       </c>
       <c r="JI5" t="n">
-        <v>0.2036436542170411</v>
+        <v>0.185668584426376</v>
       </c>
       <c r="JJ5" t="n">
-        <v>0.06953551694576865</v>
+        <v>0.06399590339635491</v>
       </c>
       <c r="JK5" t="n">
-        <v>0.003517821468467451</v>
+        <v>0.08884110480545218</v>
       </c>
       <c r="JL5" t="n">
         <v>0</v>
       </c>
       <c r="JM5" t="n">
-        <v>0.001024775079729018</v>
+        <v>0.0009439795071337338</v>
       </c>
       <c r="JN5" t="n">
-        <v>5.58219238979926e-05</v>
+        <v>5.142079784221332e-05</v>
       </c>
     </row>
   </sheetData>
